--- a/documents/RQM.xlsx
+++ b/documents/RQM.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18201"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Shanks\Desktop\documents\Chitter\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Functional RQM" sheetId="1" r:id="rId1"/>
@@ -162,9 +162,6 @@
     <t>RQM40</t>
   </si>
   <si>
-    <t>Project: &lt;Project Name&gt;</t>
-  </si>
-  <si>
     <t>Non-Functional Requirements</t>
   </si>
   <si>
@@ -280,12 +277,15 @@
   </si>
   <si>
     <t>Der Server läuft mithilfe von DigitalOcean und NodeJS</t>
+  </si>
+  <si>
+    <t>Project: Toilet-Tracker</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -646,24 +646,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="61" customWidth="1"/>
-    <col min="4" max="4" width="54.75" customWidth="1"/>
+    <col min="4" max="4" width="54.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -696,10 +696,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>57</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>58</v>
       </c>
       <c r="D4" s="3"/>
     </row>
@@ -708,10 +708,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>59</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>60</v>
       </c>
       <c r="D5" s="3"/>
     </row>
@@ -720,10 +720,10 @@
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="D6" s="3"/>
     </row>
@@ -732,10 +732,10 @@
         <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>63</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>64</v>
       </c>
       <c r="D7" s="3"/>
     </row>
@@ -744,10 +744,10 @@
         <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="D8" s="3"/>
     </row>
@@ -756,10 +756,10 @@
         <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>67</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>68</v>
       </c>
       <c r="D9" s="3"/>
     </row>
@@ -768,22 +768,22 @@
         <v>11</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>80</v>
-      </c>
       <c r="D10" s="3"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="D11" s="3"/>
     </row>
@@ -1054,24 +1054,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="58.75" customWidth="1"/>
-    <col min="4" max="4" width="54.75" customWidth="1"/>
+    <col min="3" max="3" width="58.7109375" customWidth="1"/>
+    <col min="4" max="4" width="54.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="5" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -1079,7 +1079,7 @@
     </row>
     <row r="2" spans="1:4" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -1104,10 +1104,10 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>47</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>48</v>
       </c>
       <c r="D4" s="3"/>
     </row>
@@ -1116,10 +1116,10 @@
         <v>6</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>50</v>
       </c>
       <c r="D5" s="3"/>
     </row>
@@ -1128,10 +1128,10 @@
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="D6" s="3"/>
     </row>
@@ -1140,10 +1140,10 @@
         <v>8</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="D7" s="3"/>
     </row>
@@ -1152,10 +1152,10 @@
         <v>9</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="D8" s="3"/>
     </row>
@@ -1164,10 +1164,10 @@
         <v>10</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>69</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>70</v>
       </c>
       <c r="D9" s="3"/>
     </row>
@@ -1176,10 +1176,10 @@
         <v>11</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="D10" s="3"/>
     </row>
@@ -1188,10 +1188,10 @@
         <v>12</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>73</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>74</v>
       </c>
       <c r="D11" s="3"/>
     </row>
@@ -1200,10 +1200,10 @@
         <v>13</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>75</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>76</v>
       </c>
       <c r="D12" s="3"/>
     </row>
@@ -1212,10 +1212,10 @@
         <v>14</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="D13" s="3"/>
     </row>
@@ -1224,10 +1224,10 @@
         <v>15</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>84</v>
       </c>
       <c r="D14" s="3"/>
     </row>
